--- a/report.xlsx
+++ b/report.xlsx
@@ -8,14 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="Analysis" sheetId="1" r:id="rId1"/>
-    <sheet name="DU2TAN15AJ049163detail" sheetId="2" r:id="rId2"/>
+    <sheet name="emulator-5554detail" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
   <si>
     <t>monkey性能监控</t>
   </si>
@@ -74,13 +74,13 @@
     <t>下行流量均值</t>
   </si>
   <si>
-    <t>H60-L02_Huawei_4.4</t>
-  </si>
-  <si>
-    <t>8核</t>
-  </si>
-  <si>
-    <t>3014M</t>
+    <t>PIXEL_google_7.1</t>
+  </si>
+  <si>
+    <t>4核</t>
+  </si>
+  <si>
+    <t>3545M</t>
   </si>
   <si>
     <t>1080x1920</t>
@@ -89,34 +89,28 @@
     <t>gprs</t>
   </si>
   <si>
-    <t>75秒</t>
-  </si>
-  <si>
-    <t>35%</t>
-  </si>
-  <si>
-    <t>23%</t>
-  </si>
-  <si>
-    <t>335M</t>
-  </si>
-  <si>
-    <t>102M</t>
+    <t>49秒</t>
+  </si>
+  <si>
+    <t>68%</t>
+  </si>
+  <si>
+    <t>39%</t>
+  </si>
+  <si>
+    <t>236M</t>
+  </si>
+  <si>
+    <t>66M</t>
   </si>
   <si>
     <t>60</t>
   </si>
   <si>
-    <t>57.00</t>
-  </si>
-  <si>
-    <t>10624KB</t>
-  </si>
-  <si>
-    <t>232KB</t>
-  </si>
-  <si>
-    <t>17KB</t>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>0KB</t>
   </si>
   <si>
     <t>cpu(%)</t>
@@ -244,69 +238,48 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>DU2TAN15AJ049163detail!$A$1:$A$20</c:f>
+              <c:f>emulator-5554detail!$A$1:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>34</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>35</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>29</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>19</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>21</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>25</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -391,69 +364,48 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>DU2TAN15AJ049163detail!$B$1:$B$20</c:f>
+              <c:f>emulator-5554detail!$B$1:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>150</c:v>
+                  <c:v>236</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>151</c:v>
+                  <c:v>230</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>236</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>248</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>295</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>298</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>325</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>333</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>332</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>334</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>335</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>326</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>324</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>329</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>335</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>334</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>330</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>329</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>331</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -538,75 +490,54 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>DU2TAN15AJ049163detail!$D$1:$D$22</c:f>
+              <c:f>emulator-5554detail!$D$1:$D$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>41</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>41</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>41</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>41</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>41</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>41</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>41</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>41</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -691,69 +622,48 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>DU2TAN15AJ049163detail!$C$1:$C$20</c:f>
+              <c:f>emulator-5554detail!$C$1:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>56</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>59</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>47</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>53</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>54</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>54</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>50</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>58</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>59</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>57</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>59</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>58</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -838,69 +748,48 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>DU2TAN15AJ049163detail!$E$1:$E$20</c:f>
+              <c:f>emulator-5554detail!$E$1:$E$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>335324</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>335335</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>336843</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>347466</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>347467</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>347467</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>347467</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>347469</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>347469</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>347470</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>347470</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>347471</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>347471</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>347472</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>347473</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>347473</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>347473</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>347474</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>347474</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -985,69 +874,48 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>DU2TAN15AJ049163detail!$F$1:$F$20</c:f>
+              <c:f>emulator-5554detail!$F$1:$F$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60666</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>60668</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>60718</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>60950</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>60950</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>60950</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>60950</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>60952</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>60952</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>60952</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>60953</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>60953</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>60953</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>60956</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>60956</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>60956</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>60956</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>60957</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>60957</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1104,13 +972,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1134,13 +1002,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1164,13 +1032,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1194,13 +1062,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1224,13 +1092,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1254,13 +1122,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1704,22 +1572,22 @@
         <v>30</v>
       </c>
       <c r="M3" s="2">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="N3" s="2">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="30" customHeight="1"/>
@@ -1742,7 +1610,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1758,222 +1626,222 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="30" customHeight="1">
       <c r="A2" s="2">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="B2" s="2">
-        <v>150</v>
+        <v>236</v>
       </c>
       <c r="C2" s="2">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D2" s="2">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="E2" s="2">
-        <v>335324</v>
+        <v>0</v>
       </c>
       <c r="F2" s="2">
-        <v>60666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="30" customHeight="1">
       <c r="A3" s="2">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="B3" s="2">
-        <v>151</v>
+        <v>230</v>
       </c>
       <c r="C3" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D3" s="2">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="E3" s="2">
-        <v>335335</v>
+        <v>0</v>
       </c>
       <c r="F3" s="2">
-        <v>60668</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30" customHeight="1">
       <c r="A4" s="2">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="B4" s="2">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C4" s="2">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="D4" s="2">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="E4" s="2">
-        <v>336843</v>
+        <v>0</v>
       </c>
       <c r="F4" s="2">
-        <v>60718</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30" customHeight="1">
       <c r="A5" s="2">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="B5" s="2">
-        <v>248</v>
+        <v>215</v>
       </c>
       <c r="C5" s="2">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D5" s="2">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="E5" s="2">
-        <v>347466</v>
+        <v>0</v>
       </c>
       <c r="F5" s="2">
-        <v>60950</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30" customHeight="1">
       <c r="A6" s="2">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B6" s="2">
-        <v>295</v>
+        <v>215</v>
       </c>
       <c r="C6" s="2">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D6" s="2">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="E6" s="2">
-        <v>347467</v>
+        <v>0</v>
       </c>
       <c r="F6" s="2">
-        <v>60950</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="30" customHeight="1">
       <c r="A7" s="2">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B7" s="2">
-        <v>298</v>
+        <v>213</v>
       </c>
       <c r="C7" s="2">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D7" s="2">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="E7" s="2">
-        <v>347467</v>
+        <v>0</v>
       </c>
       <c r="F7" s="2">
-        <v>60950</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B8" s="2">
-        <v>325</v>
+        <v>213</v>
       </c>
       <c r="C8" s="2">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D8" s="2">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="E8" s="2">
-        <v>347467</v>
+        <v>0</v>
       </c>
       <c r="F8" s="2">
-        <v>60950</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="B9" s="2">
-        <v>333</v>
+        <v>231</v>
       </c>
       <c r="C9" s="2">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D9" s="2">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="E9" s="2">
-        <v>347469</v>
+        <v>0</v>
       </c>
       <c r="F9" s="2">
-        <v>60952</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B10" s="2">
-        <v>332</v>
+        <v>232</v>
       </c>
       <c r="C10" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D10" s="2">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="E10" s="2">
-        <v>347469</v>
+        <v>0</v>
       </c>
       <c r="F10" s="2">
-        <v>60952</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B11" s="2">
-        <v>334</v>
+        <v>232</v>
       </c>
       <c r="C11" s="2">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D11" s="2">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="E11" s="2">
-        <v>347470</v>
+        <v>0</v>
       </c>
       <c r="F11" s="2">
-        <v>60952</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1981,189 +1849,49 @@
         <v>26</v>
       </c>
       <c r="B12" s="2">
-        <v>335</v>
+        <v>231</v>
       </c>
       <c r="C12" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D12" s="2">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="E12" s="2">
-        <v>347470</v>
+        <v>0</v>
       </c>
       <c r="F12" s="2">
-        <v>60953</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="2">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="B13" s="2">
-        <v>326</v>
+        <v>236</v>
       </c>
       <c r="C13" s="2">
         <v>60</v>
       </c>
       <c r="D13" s="2">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="E13" s="2">
-        <v>347471</v>
+        <v>0</v>
       </c>
       <c r="F13" s="2">
-        <v>60953</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="2">
-        <v>25</v>
-      </c>
-      <c r="B14" s="2">
-        <v>324</v>
-      </c>
-      <c r="C14" s="2">
-        <v>59</v>
-      </c>
       <c r="D14" s="2">
-        <v>41</v>
-      </c>
-      <c r="E14" s="2">
-        <v>347471</v>
-      </c>
-      <c r="F14" s="2">
-        <v>60953</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="2">
-        <v>26</v>
-      </c>
-      <c r="B15" s="2">
-        <v>329</v>
-      </c>
-      <c r="C15" s="2">
-        <v>60</v>
-      </c>
       <c r="D15" s="2">
-        <v>41</v>
-      </c>
-      <c r="E15" s="2">
-        <v>347472</v>
-      </c>
-      <c r="F15" s="2">
-        <v>60956</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="2">
-        <v>25</v>
-      </c>
-      <c r="B16" s="2">
-        <v>335</v>
-      </c>
-      <c r="C16" s="2">
-        <v>58</v>
-      </c>
-      <c r="D16" s="2">
-        <v>41</v>
-      </c>
-      <c r="E16" s="2">
-        <v>347473</v>
-      </c>
-      <c r="F16" s="2">
-        <v>60956</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="2">
-        <v>28</v>
-      </c>
-      <c r="B17" s="2">
-        <v>334</v>
-      </c>
-      <c r="C17" s="2">
-        <v>59</v>
-      </c>
-      <c r="D17" s="2">
-        <v>41</v>
-      </c>
-      <c r="E17" s="2">
-        <v>347473</v>
-      </c>
-      <c r="F17" s="2">
-        <v>60956</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="2">
-        <v>24</v>
-      </c>
-      <c r="B18" s="2">
-        <v>330</v>
-      </c>
-      <c r="C18" s="2">
-        <v>58</v>
-      </c>
-      <c r="D18" s="2">
-        <v>41</v>
-      </c>
-      <c r="E18" s="2">
-        <v>347473</v>
-      </c>
-      <c r="F18" s="2">
-        <v>60956</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="2">
-        <v>25</v>
-      </c>
-      <c r="B19" s="2">
-        <v>329</v>
-      </c>
-      <c r="C19" s="2">
-        <v>59</v>
-      </c>
-      <c r="D19" s="2">
-        <v>41</v>
-      </c>
-      <c r="E19" s="2">
-        <v>347474</v>
-      </c>
-      <c r="F19" s="2">
-        <v>60957</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="2">
-        <v>25</v>
-      </c>
-      <c r="B20" s="2">
-        <v>331</v>
-      </c>
-      <c r="C20" s="2">
-        <v>58</v>
-      </c>
-      <c r="D20" s="2">
-        <v>41</v>
-      </c>
-      <c r="E20" s="2">
-        <v>347474</v>
-      </c>
-      <c r="F20" s="2">
-        <v>60957</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="D21" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="D22" s="2">
-        <v>41</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
